--- a/line_plot/test_data/precision#0.05.xlsx
+++ b/line_plot/test_data/precision#0.05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,12 @@
       <c r="F1" s="1" t="n">
         <v>0.25</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,19 +468,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5236167030213126</v>
+        <v>0.4666964314870716</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5520475366806737</v>
+        <v>0.4746283170420481</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5439655484767505</v>
+        <v>0.4870957723889638</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5635387195064466</v>
+        <v>0.490971971529489</v>
       </c>
       <c r="F2" t="n">
-        <v>0.582041450435275</v>
+        <v>0.5217771527472197</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.4392655719426324</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.4299668311203524</v>
       </c>
     </row>
     <row r="3">
@@ -484,19 +496,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5565024817821135</v>
+        <v>0.5126477637054579</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5908331252296704</v>
+        <v>0.5358142233281051</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5906435740384822</v>
+        <v>0.5428041268672389</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5962437560699945</v>
+        <v>0.5499190804908614</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6132054664423541</v>
+        <v>0.5688209546791062</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4366996458560656</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4441701486477543</v>
       </c>
     </row>
     <row r="4">
@@ -506,19 +524,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5760936964530659</v>
+        <v>0.534399241486345</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6171623633852301</v>
+        <v>0.5739656372769535</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6007524542486402</v>
+        <v>0.5587380549480098</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6225135780677288</v>
+        <v>0.57906325212401</v>
       </c>
       <c r="F4" t="n">
-        <v>0.618329556570781</v>
+        <v>0.5774037754621802</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4612482604977641</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4601406499664861</v>
       </c>
     </row>
   </sheetData>
